--- a/plantillasSap/plantillaSap.xlsx
+++ b/plantillasSap/plantillaSap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.WIN-C8USBNGG6F4\OneDrive - industrias venado\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x11832\Documents\ProyectosDaniel\VENADO\sapHunter\SAPHunter\plantillasSap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6588F45-C819-443B-8F53-1635458A443B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF5AB6D-31C3-4309-A854-A50B43ECE2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNION" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1416,21 +1416,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005CEA4A3271DCBA4EAAF6546E5E72E6B9" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9f4703c42411a0ab2cbe4f76d07c363a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67a8ef32-fc59-4c7d-bd11-99ee693961a8" xmlns:ns3="5ba551d7-4968-4bed-ac2a-9940209dff60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a08d7022bf1d2286744d4d783241da1" ns2:_="" ns3:_="">
     <xsd:import namespace="67a8ef32-fc59-4c7d-bd11-99ee693961a8"/>
@@ -1595,24 +1580,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529CE558-5F31-4E6E-880C-CC46C9E2032D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCCD9B4-630D-431C-B66D-A39FBB8F866F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBCB90DE-65E8-4240-9CA3-91EB191DFD51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1629,4 +1612,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCCD9B4-630D-431C-B66D-A39FBB8F866F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529CE558-5F31-4E6E-880C-CC46C9E2032D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/plantillasSap/plantillaSap.xlsx
+++ b/plantillasSap/plantillaSap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x11832\Documents\ProyectosDaniel\VENADO\sapHunter\SAPHunter\plantillasSap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF5AB6D-31C3-4309-A854-A50B43ECE2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA431D24-9D4E-4C92-874E-F9188D323596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNION" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ESTADO DE CUENTA DEL 07/08/2020 AL 09/08/2020</t>
   </si>
@@ -98,12 +98,6 @@
   </si>
   <si>
     <t>TIPO</t>
-  </si>
-  <si>
-    <t>DE INDUSTRIAS VENADO</t>
-  </si>
-  <si>
-    <t>Z001</t>
   </si>
   <si>
     <t>BANCO MERCANTIL</t>
@@ -113,9 +107,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -275,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -316,23 +307,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,40 +317,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,46 +623,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="1"/>
     <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -735,11 +683,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -748,7 +698,9 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -757,7 +709,8 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -771,27 +724,23 @@
         <v>8</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="22"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="10"/>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1363.1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>113363.1</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="30"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="29"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="11"/>
       <c r="E10" s="10"/>
       <c r="G10" s="11"/>
@@ -800,6 +749,8 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -847,557 +798,116 @@
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
-        <v>44732</v>
-      </c>
-      <c r="B17" s="31">
-        <v>85509</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="31">
-        <v>112000</v>
-      </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="40" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="17"/>
-    </row>
-    <row r="42" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="19"/>
-    </row>
-    <row r="48" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="19"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="19"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="19"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="10"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="6:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F44" s="14"/>
+    </row>
+    <row r="51" spans="7:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="7:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="19"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="58" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="19"/>
-    </row>
-    <row r="62" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="19"/>
-    </row>
-    <row r="63" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="16"/>
-    </row>
-    <row r="65" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="19"/>
-    </row>
-    <row r="66" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="19"/>
-    </row>
-    <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="19"/>
-    </row>
-    <row r="71" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="19"/>
-    </row>
-    <row r="73" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="11"/>
-    </row>
-    <row r="74" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="19"/>
-    </row>
-    <row r="75" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="11"/>
-    </row>
-    <row r="76" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="19"/>
-    </row>
-    <row r="77" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="16"/>
-    </row>
-    <row r="78" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="16"/>
-    </row>
-    <row r="80" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="19"/>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="10"/>
-    </row>
-    <row r="83" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="16"/>
-    </row>
-    <row r="84" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="19"/>
-    </row>
-    <row r="85" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="16"/>
-    </row>
-    <row r="86" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A16:E64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1416,6 +926,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005CEA4A3271DCBA4EAAF6546E5E72E6B9" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9f4703c42411a0ab2cbe4f76d07c363a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67a8ef32-fc59-4c7d-bd11-99ee693961a8" xmlns:ns3="5ba551d7-4968-4bed-ac2a-9940209dff60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a08d7022bf1d2286744d4d783241da1" ns2:_="" ns3:_="">
     <xsd:import namespace="67a8ef32-fc59-4c7d-bd11-99ee693961a8"/>
@@ -1580,15 +1099,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1596,6 +1106,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCCD9B4-630D-431C-B66D-A39FBB8F866F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBCB90DE-65E8-4240-9CA3-91EB191DFD51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1614,14 +1132,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCCD9B4-630D-431C-B66D-A39FBB8F866F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529CE558-5F31-4E6E-880C-CC46C9E2032D}">
   <ds:schemaRefs>
